--- a/biology/Zoologie/Doleschallia_bisaltide/Doleschallia_bisaltide.xlsx
+++ b/biology/Zoologie/Doleschallia_bisaltide/Doleschallia_bisaltide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doleschallia bisaltide ou Papillon-feuille est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Doleschallia.
 </t>
@@ -511,19 +523,91 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom 'Doleschallia bisaltide a été donné par Cramer en 1777[1].
-Noms vernaculaires
-Doleschallia bisaltide se nomme en anglais Autumn leaf[1].
-Sous-espèces
-Doleschallia bisaltide bisaltide
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom 'Doleschallia bisaltide a été donné par Cramer en 1777.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doleschallia bisaltide se nomme en anglais Autumn leaf.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Doleschallia bisaltide bisaltide
 Doleschallia bisaltide apameia Fruhstorfer
 Doleschallia bisaltide australis C. et R. Felder, 1867;
 Doleschallia bisaltide cethega Fruhstorfer;
 Doleschallia bisaltide ceylonica Fruhstorfer; au Sri Lanka;
 Doleschallia bisaltide continentalis Fruhstorfer, 1899;
-Doleschallia bisaltide denisi (Viette 1950) en Nouvelle-Calédonie[2].
+Doleschallia bisaltide denisi (Viette 1950) en Nouvelle-Calédonie.
 Doleschallia bisaltide gurelca Grose-Smith;
 Doleschallia bisaltide herrichi Butler; au Vanuatu.
 Doleschallia bisaltide indica Moore, 1899;
@@ -532,45 +616,47 @@
 Doleschallia bisaltide nasica Fruhstorfer, 1907;
 Doleschallia bisaltide nigromarginata Joicey et Noakes, 1915;
 Doleschallia bisaltide philippines Fruhstorfer
-Doleschallia bisaltide polibete (Cramer, [1779])
+Doleschallia bisaltide polibete (Cramer, )
 Doleschallia bisaltide pratipa C. &amp; R. Felder, 1860
 Doleschallia bisaltide rennellensis Howarth
 Doleschallia bisaltide scapus Fruhstorfer
 Doleschallia bisaltide sciron Godman &amp; Salvin
 Doleschallia bisaltide siamensis Fruhstorfer, 1912;
 Doleschallia bisaltide tenimberensis Fruhstorfer;
-Doleschallia bisaltide tualensis Fruhstorfer[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Doleschallia_bisaltide</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Doleschallia bisaltide tualensis Fruhstorfer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-C'est un papillon de 6 à 7 cm d'envergure en moyenne[3], qui, ailes fermées mime une feuille avec ses ailes antérieures au bord concave et son revers couleur brun noisette feuille d'automne, ses ocelles ébauchés faisant penser à des meurtrissures de feuilles mortes d'où son nom en anglais. 
+C'est un papillon de 6 à 7 cm d'envergure en moyenne, qui, ailes fermées mime une feuille avec ses ailes antérieures au bord concave et son revers couleur brun noisette feuille d'automne, ses ocelles ébauchés faisant penser à des meurtrissures de feuilles mortes d'où son nom en anglais. 
 			Papillon-feuille, ailes fermées, Kérala, Inde
 			Papillon-feuille, ailes ouvertes, Kérala, Inde
 Le dessus est marron doré avec l'apex des antérieures marron foncé. 
@@ -578,78 +664,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Doleschallia_bisaltide</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son vol est puissant et rapide[4]. 
-.
-Chenille
-La chenille est noire (ou grise pour certaines espèces) ornée de lignes de points blancs et quelques points rouges et munie d'épines de couleur noire[4]. 
-Elle se développe en particulier sur les arbres jacquiers artocarpus heterophyllus.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Pseuderanthemum, Pseuderanthemum bicolor, Pseuderanthemum malabaricum, Pseuderanthemum variabile, Pseuderanthemum, Artocarpus heterophyllus, Asystasia gangetica, Graptophyllum pictum et Strobilanthes isophyllus[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Doleschallia_bisaltide</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le sud-est de l'Asie, Sri Lanka, Inde, Thaïlande, Birmanie, ouest de la Malaisie et en Océanie, à Sumatra, Bornéo, au Sulawesi et au Vanuatu, dans  le nord-est de l'Australie et en Nouvelle-Calédonie à Grande Terre et aux îles Loyauté[1],[4],[2]. 
-Biotope
-Il réside dans la forêt humide et au bord des routes jusqu'à une altitude de 1400 mètres [4].
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -671,12 +685,230 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son vol est puissant et rapide. 
+.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire (ou grise pour certaines espèces) ornée de lignes de points blancs et quelques points rouges et munie d'épines de couleur noire. 
+Elle se développe en particulier sur les arbres jacquiers artocarpus heterophyllus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Pseuderanthemum, Pseuderanthemum bicolor, Pseuderanthemum malabaricum, Pseuderanthemum variabile, Pseuderanthemum, Artocarpus heterophyllus, Asystasia gangetica, Graptophyllum pictum et Strobilanthes isophyllus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le sud-est de l'Asie, Sri Lanka, Inde, Thaïlande, Birmanie, ouest de la Malaisie et en Océanie, à Sumatra, Bornéo, au Sulawesi et au Vanuatu, dans  le nord-est de l'Australie et en Nouvelle-Calédonie à Grande Terre et aux îles Loyauté. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide et au bord des routes jusqu'à une altitude de 1400 mètres .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doleschallia_bisaltide</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un timbre des Îles Salomon de 1982 représente le dessus et le revers de Doleschallia bisaltide. Un timbre Australien représente le dessus[5].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un timbre des Îles Salomon de 1982 représente le dessus et le revers de Doleschallia bisaltide. Un timbre Australien représente le dessus.
 </t>
         </is>
       </c>
